--- a/XLS_catalog_pairwise_small.xlsx
+++ b/XLS_catalog_pairwise_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/Projects/testtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC7B6E-2DA2-C146-A02B-3807964A494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D48269-CB71-5747-9526-785399322D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="760" windowWidth="25840" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Диагональ, дюйм</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -426,7 +426,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -441,63 +441,63 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="8">
         <v>123456789012</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -514,34 +514,34 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8">
         <v>987654321098</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -558,32 +558,32 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="8">
         <v>987654321098</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>100</v>
